--- a/A1/fulls_calcul.xlsx
+++ b/A1/fulls_calcul.xlsx
@@ -21,6 +21,7 @@
     <sheet name="Bandwidth provider" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -816,10 +817,10 @@
     <numFmt numFmtId="166" formatCode="#.##&quot;kW&quot;"/>
     <numFmt numFmtId="167" formatCode="0.##&quot;W&quot;"/>
     <numFmt numFmtId="168" formatCode="[$€-2]\ 0.00"/>
-    <numFmt numFmtId="170" formatCode="&quot;€&quot;#,##0.000000"/>
-    <numFmt numFmtId="171" formatCode="0&quot;kW&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00&quot; €&quot;"/>
-    <numFmt numFmtId="173" formatCode="0&quot;Mbps&quot;"/>
+    <numFmt numFmtId="169" formatCode="&quot;€&quot;#,##0.000000"/>
+    <numFmt numFmtId="170" formatCode="0&quot;kW&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00&quot; €&quot;"/>
+    <numFmt numFmtId="172" formatCode="0&quot;Mbps&quot;"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2140,7 +2141,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2151,7 +2152,7 @@
     <xf numFmtId="9" fontId="9" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="9" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="9" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2252,11 +2253,11 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="16" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="0" fillId="15" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="15" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="14" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="14" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2311,7 +2312,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="17" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="17" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="17" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="17" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2334,7 +2335,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="17" fillId="18" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="17" fillId="18" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2355,7 +2356,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2371,23 +2372,23 @@
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -2665,7 +2666,7 @@
                 <c:formatCode>"€"#,##0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>14264.474456453763</c:v>
+                  <c:v>14253.612142936321</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1721.3454115905599</c:v>
@@ -2830,67 +2831,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2002.3792000000001</c:v>
+                  <c:v>2000.8543999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2102.4981600000001</c:v>
+                  <c:v>2100.8971200000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2202.6171200000003</c:v>
+                  <c:v>2200.93984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2302.7360800000001</c:v>
+                  <c:v>2300.9825599999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2402.8550399999999</c:v>
+                  <c:v>2401.0252799999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2502.9740000000002</c:v>
+                  <c:v>2501.0679999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2603.0929600000004</c:v>
+                  <c:v>2601.1107200000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2703.2119200000002</c:v>
+                  <c:v>2701.15344</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2803.33088</c:v>
+                  <c:v>2801.19616</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2903.4498400000002</c:v>
+                  <c:v>2901.2388799999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3003.5688</c:v>
+                  <c:v>3001.2815999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3103.6877600000003</c:v>
+                  <c:v>3101.3243200000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3203.8067200000005</c:v>
+                  <c:v>3201.3670400000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3303.9256799999998</c:v>
+                  <c:v>3301.4097599999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3404.0446400000001</c:v>
+                  <c:v>3401.4524799999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3504.1636000000003</c:v>
+                  <c:v>3501.4951999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3604.2825600000001</c:v>
+                  <c:v>3601.5379199999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3704.4015200000003</c:v>
+                  <c:v>3701.5806400000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3804.5204800000001</c:v>
+                  <c:v>3801.6233599999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3904.6394399999999</c:v>
+                  <c:v>3901.66608</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4004.7584000000002</c:v>
+                  <c:v>4001.7087999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2995,67 +2996,67 @@
                 <c:formatCode>"€"#,##0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>345849.18133982079</c:v>
+                  <c:v>345585.81921954558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>363141.64040681184</c:v>
+                  <c:v>362865.1101805229</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>380434.0994738029</c:v>
+                  <c:v>380144.40114150016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>397726.55854079395</c:v>
+                  <c:v>397423.69210247742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>415019.01760778495</c:v>
+                  <c:v>414702.98306345468</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>432311.476674776</c:v>
+                  <c:v>431982.27402443194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>449603.93574176711</c:v>
+                  <c:v>449261.56498540926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>466896.39480875811</c:v>
+                  <c:v>466540.85594638652</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>484188.8538757491</c:v>
+                  <c:v>483820.14690736384</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>501481.31294274016</c:v>
+                  <c:v>501099.43786834111</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>518773.77200973115</c:v>
+                  <c:v>518378.72882931837</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>536066.23107672227</c:v>
+                  <c:v>535658.01979029574</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>553358.69014371338</c:v>
+                  <c:v>552937.31075127295</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>570651.14921070426</c:v>
+                  <c:v>570216.60171225015</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>587943.60827769537</c:v>
+                  <c:v>587495.89267322747</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>605236.06734468648</c:v>
+                  <c:v>604775.18363420479</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>622528.52641167748</c:v>
+                  <c:v>622054.47459518199</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>639820.98547866847</c:v>
+                  <c:v>639333.76555615931</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>657113.44454565947</c:v>
+                  <c:v>656613.05651713652</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>674405.90361265047</c:v>
+                  <c:v>673892.34747811384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>691698.36267964158</c:v>
+                  <c:v>691171.63843909116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3160,67 +3161,67 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2202.6171200000003</c:v>
+                  <c:v>2200.93984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2312.7479760000001</c:v>
+                  <c:v>2310.9868320000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2422.8788320000008</c:v>
+                  <c:v>2421.0338240000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2533.0096880000006</c:v>
+                  <c:v>2531.0808160000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2643.1405440000003</c:v>
+                  <c:v>2641.1278080000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2753.2714000000005</c:v>
+                  <c:v>2751.1747999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2863.4022560000008</c:v>
+                  <c:v>2861.2217920000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2973.5331120000005</c:v>
+                  <c:v>2971.2687840000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3083.6639680000003</c:v>
+                  <c:v>3081.3157760000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3193.7948240000005</c:v>
+                  <c:v>3191.362768</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3303.9256800000003</c:v>
+                  <c:v>3301.40976</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3414.0565360000005</c:v>
+                  <c:v>3411.4567520000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3524.1873920000007</c:v>
+                  <c:v>3521.5037440000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3634.318248</c:v>
+                  <c:v>3631.5507359999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3744.4491040000003</c:v>
+                  <c:v>3741.5977280000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3854.5799600000005</c:v>
+                  <c:v>3851.6447200000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3964.7108160000002</c:v>
+                  <c:v>3961.6917120000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4074.8416720000009</c:v>
+                  <c:v>4071.7387040000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4184.9725280000002</c:v>
+                  <c:v>4181.7856959999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4295.103384</c:v>
+                  <c:v>4291.8326880000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4405.2342400000007</c:v>
+                  <c:v>4401.87968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3325,67 +3326,67 @@
                 <c:formatCode>"€"#,##0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>360113.65579627454</c:v>
+                  <c:v>359839.4313624819</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>364862.98581840238</c:v>
+                  <c:v>364586.45559211343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>382237.41371451679</c:v>
+                  <c:v>381947.71538221405</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>399611.84161063121</c:v>
+                  <c:v>399308.97517231468</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>416986.26950674556</c:v>
+                  <c:v>416670.2349624153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>434360.69740285998</c:v>
+                  <c:v>434031.49475251592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>451735.12529897445</c:v>
+                  <c:v>451392.7545426166</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>469109.55319508881</c:v>
+                  <c:v>468754.01433271723</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>486483.98109120317</c:v>
+                  <c:v>486115.27412281791</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>503858.40898731758</c:v>
+                  <c:v>503476.53391291853</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>521232.83688343194</c:v>
+                  <c:v>520837.79370301915</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>538607.26477954641</c:v>
+                  <c:v>538199.05349311989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>555981.69267566095</c:v>
+                  <c:v>555560.31328322052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>573356.12057177513</c:v>
+                  <c:v>572921.57307332102</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>590730.54846788966</c:v>
+                  <c:v>590282.83286342176</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>608104.97636400408</c:v>
+                  <c:v>607644.09265352238</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>625479.40426011849</c:v>
+                  <c:v>625005.35244362301</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>642853.83215623279</c:v>
+                  <c:v>642366.61223372363</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>660228.26005234721</c:v>
+                  <c:v>659727.87202382425</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>677602.68794846151</c:v>
+                  <c:v>677089.13181392488</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>694977.11584457592</c:v>
+                  <c:v>694450.3916040255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3400,11 +3401,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2136646832"/>
-        <c:axId val="-2136645744"/>
+        <c:axId val="1684056096"/>
+        <c:axId val="1684052832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2136646832"/>
+        <c:axId val="1684056096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -3479,14 +3480,14 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136645744"/>
+        <c:crossAx val="1684052832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
         <c:minorUnit val="0.125"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2136645744"/>
+        <c:axId val="1684052832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3532,7 +3533,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136646832"/>
+        <c:crossAx val="1684056096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="75000"/>
@@ -4755,7 +4756,7 @@
   </sheetPr>
   <dimension ref="A1:IV42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -4781,10 +4782,10 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A2" s="225" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="226"/>
+      <c r="A2" s="223" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="224"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
         <v>1</v>
@@ -4812,11 +4813,11 @@
       </c>
       <c r="E3" s="14">
         <f>Electricitat!F18</f>
-        <v>360113.65579627454</v>
+        <v>359839.4313624819</v>
       </c>
       <c r="F3" s="14">
         <f>E3*5</f>
-        <v>1800568.2789813727</v>
+        <v>1799197.1568124094</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="3"/>
@@ -4855,11 +4856,11 @@
       </c>
       <c r="E5" s="14">
         <f>IF(B20=1,Infraestructura!J4,IF(B20=2,Infraestructura!J5,IF(B20=3,Infraestructura!J6,"error")))</f>
-        <v>446017.04836944118</v>
+        <v>445975.91470437223</v>
       </c>
       <c r="F5" s="18">
         <f>E5*5</f>
-        <v>2230085.2418472059</v>
+        <v>2229879.5735218613</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="3"/>
@@ -4890,7 +4891,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="23">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="8" t="s">
@@ -4898,11 +4899,11 @@
       </c>
       <c r="E7" s="14">
         <f>IF(B16=1,B17*Backup!L6,IF(B16=2,B17*Backup!L7,IF(B16=3,0,"error")))</f>
-        <v>196291.296</v>
+        <v>1551.4288799999999</v>
       </c>
       <c r="F7" s="24">
         <f>E7*5</f>
-        <v>981456.48</v>
+        <v>7757.1443999999992</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="3"/>
@@ -4921,11 +4922,11 @@
       </c>
       <c r="E8" s="14">
         <f>Backup!M27</f>
-        <v>79080.03</v>
+        <v>4791.1774050000004</v>
       </c>
       <c r="F8" s="14">
         <f>E8*5</f>
-        <v>395400.15</v>
+        <v>23955.887025000004</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="3"/>
@@ -4944,11 +4945,11 @@
       </c>
       <c r="E9" s="14">
         <f>'Bandwidth provider'!F9</f>
-        <v>1058.4000000000001</v>
+        <v>3175.2</v>
       </c>
       <c r="F9" s="14">
         <f>E9*5</f>
-        <v>5292</v>
+        <v>15876</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="3"/>
@@ -4966,10 +4967,10 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A11" s="223" t="s">
+      <c r="A11" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="224"/>
+      <c r="B11" s="222"/>
       <c r="C11" s="5"/>
       <c r="D11" s="30" t="s">
         <v>19</v>
@@ -4983,10 +4984,10 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="222"/>
+      <c r="B12" s="226"/>
       <c r="C12" s="12"/>
       <c r="D12" s="8" t="s">
         <v>22</v>
@@ -5005,7 +5006,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="23">
-        <v>227580</v>
+        <v>1434.33</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="8" t="s">
@@ -5033,7 +5034,7 @@
       </c>
       <c r="E14" s="14">
         <f>'Cabina de discos'!K24+Backup!M29</f>
-        <v>55720</v>
+        <v>13688</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="3"/>
@@ -5101,10 +5102,10 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A19" s="221" t="s">
+      <c r="A19" s="225" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="222"/>
+      <c r="B19" s="226"/>
       <c r="C19" s="5"/>
       <c r="D19" s="30" t="s">
         <v>32</v>
@@ -5128,7 +5129,7 @@
       </c>
       <c r="E20" s="14">
         <f>SUM(F3:F9)</f>
-        <v>5412802.1508285794</v>
+        <v>4076665.7617592709</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="3"/>
@@ -5148,7 +5149,7 @@
       </c>
       <c r="E21" s="14">
         <f>SUM(E12:E14)</f>
-        <v>16555720</v>
+        <v>16513688</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="3"/>
@@ -5168,7 +5169,7 @@
       </c>
       <c r="E22" s="14">
         <f>E20+E21</f>
-        <v>21968522.150828578</v>
+        <v>20590353.76175927</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="3"/>
@@ -5176,17 +5177,17 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A23" s="221" t="s">
+      <c r="A23" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="222"/>
+      <c r="B23" s="226"/>
       <c r="C23" s="12"/>
       <c r="D23" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="35">
         <f>B8-E22</f>
-        <v>-1968522.1508285776</v>
+        <v>-590353.76175926998</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="3"/>
@@ -5213,7 +5214,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="3"/>
@@ -5254,10 +5255,10 @@
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A28" s="221" t="s">
+      <c r="A28" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="222"/>
+      <c r="B28" s="226"/>
       <c r="C28" s="32"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -5271,7 +5272,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="3"/>
@@ -5286,7 +5287,7 @@
         <v>47</v>
       </c>
       <c r="B30" s="23">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="3"/>
@@ -5327,10 +5328,10 @@
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A33" s="221" t="s">
+      <c r="A33" s="225" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="222"/>
+      <c r="B33" s="226"/>
       <c r="C33" s="32"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -5344,7 +5345,7 @@
         <v>51</v>
       </c>
       <c r="B34" s="23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" s="32"/>
       <c r="D34" s="3"/>
@@ -5359,7 +5360,7 @@
         <v>47</v>
       </c>
       <c r="B35" s="23">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C35" s="32"/>
       <c r="D35" s="3"/>
@@ -5374,7 +5375,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C36" s="32"/>
       <c r="D36" s="3"/>
@@ -5389,7 +5390,7 @@
         <v>49</v>
       </c>
       <c r="B37" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" s="32"/>
       <c r="D37" s="3"/>
@@ -5400,10 +5401,10 @@
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A38" s="221" t="s">
+      <c r="A38" s="225" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="222"/>
+      <c r="B38" s="226"/>
       <c r="C38" s="32"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -5417,7 +5418,7 @@
         <v>51</v>
       </c>
       <c r="B39" s="23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C39" s="32"/>
       <c r="D39" s="3"/>
@@ -5447,7 +5448,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C41" s="32"/>
       <c r="D41" s="3"/>
@@ -5484,7 +5485,7 @@
     <mergeCell ref="A33:B33"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5495,8 +5496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.875" defaultRowHeight="15.75" customHeight="1"/>
@@ -5624,11 +5625,11 @@
       </c>
       <c r="E5" s="42">
         <f t="shared" ref="E5:E14" si="0">Resum!$B$30</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" s="42">
         <f t="shared" ref="F5:F14" si="1">Resum!$B$35</f>
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="G5" s="42">
         <f t="shared" ref="G5:G14" si="2">Resum!$B$40</f>
@@ -5671,11 +5672,11 @@
       </c>
       <c r="E6" s="42">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" s="42">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="G6" s="42">
         <f t="shared" si="2"/>
@@ -5718,11 +5719,11 @@
       </c>
       <c r="E7" s="42">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7" s="42">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="G7" s="42">
         <f t="shared" si="2"/>
@@ -5765,11 +5766,11 @@
       </c>
       <c r="E8" s="42">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F8" s="42">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="G8" s="42">
         <f t="shared" si="2"/>
@@ -5804,7 +5805,7 @@
       </c>
       <c r="C9" s="42">
         <f>IF(Resum!$B$34=5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="42">
         <f>IF(Resum!B39=5,1,0)</f>
@@ -5812,11 +5813,11 @@
       </c>
       <c r="E9" s="42">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F9" s="42">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="G9" s="42">
         <f t="shared" si="2"/>
@@ -5830,11 +5831,11 @@
       </c>
       <c r="J9" s="43">
         <f t="shared" si="3"/>
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="K9" s="44">
         <f t="shared" si="4"/>
-        <v>28236</v>
+        <v>0</v>
       </c>
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
@@ -5847,7 +5848,7 @@
       </c>
       <c r="B10" s="42">
         <f>IF(Resum!$B$29=6,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="42">
         <f>IF(Resum!$B$34=6,1,0)</f>
@@ -5859,11 +5860,11 @@
       </c>
       <c r="E10" s="42">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F10" s="42">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="G10" s="42">
         <f t="shared" si="2"/>
@@ -5877,11 +5878,11 @@
       </c>
       <c r="J10" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K10" s="44">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="L10" s="37"/>
       <c r="M10" s="37"/>
@@ -5906,11 +5907,11 @@
       </c>
       <c r="E11" s="42">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F11" s="42">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="G11" s="42">
         <f t="shared" si="2"/>
@@ -5941,11 +5942,11 @@
       </c>
       <c r="B12" s="42">
         <f>IF(Resum!$B$29=8,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="42">
         <f>IF(Resum!$B$34=8,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="42">
         <f>IF(Resum!B39=8,1,0)</f>
@@ -5953,11 +5954,11 @@
       </c>
       <c r="E12" s="42">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F12" s="42">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="G12" s="42">
         <f t="shared" si="2"/>
@@ -5971,11 +5972,11 @@
       </c>
       <c r="J12" s="43">
         <f t="shared" si="3"/>
-        <v>53.199999999999996</v>
+        <v>30.4</v>
       </c>
       <c r="K12" s="44">
         <f t="shared" si="4"/>
-        <v>6384</v>
+        <v>3648</v>
       </c>
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
@@ -5996,15 +5997,15 @@
       </c>
       <c r="D13" s="42">
         <f>IF(Resum!B39=9,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="42">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F13" s="42">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="G13" s="42">
         <f t="shared" si="2"/>
@@ -6047,11 +6048,11 @@
       </c>
       <c r="E14" s="42">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F14" s="42">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="G14" s="42">
         <f t="shared" si="2"/>
@@ -6124,7 +6125,7 @@
       </c>
       <c r="F16" s="42">
         <f t="shared" ref="F16:F21" si="6">Resum!$B$37</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" s="42">
         <f t="shared" ref="G16:G21" si="7">Resum!$B$42</f>
@@ -6164,7 +6165,7 @@
       </c>
       <c r="C17" s="42">
         <f>IF(Resum!$B$36=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="42">
         <f>IF(Resum!B41=2,1,0)</f>
@@ -6176,7 +6177,7 @@
       </c>
       <c r="F17" s="42">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" s="42">
         <f t="shared" si="7"/>
@@ -6190,18 +6191,18 @@
       </c>
       <c r="J17" s="43">
         <f t="shared" si="8"/>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K17" s="44">
         <f t="shared" si="9"/>
-        <v>4600</v>
+        <v>9200</v>
       </c>
       <c r="L17" s="42">
         <v>4</v>
       </c>
       <c r="M17" s="42">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
@@ -6228,7 +6229,7 @@
       </c>
       <c r="F18" s="42">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" s="42">
         <f t="shared" si="7"/>
@@ -6280,7 +6281,7 @@
       </c>
       <c r="F19" s="42">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" s="42">
         <f t="shared" si="7"/>
@@ -6320,7 +6321,7 @@
       </c>
       <c r="C20" s="42">
         <f>IF(Resum!$B$36=5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="42">
         <f>IF(Resum!B41=5,1,0)</f>
@@ -6332,7 +6333,7 @@
       </c>
       <c r="F20" s="42">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" s="42">
         <f t="shared" si="7"/>
@@ -6346,18 +6347,18 @@
       </c>
       <c r="J20" s="43">
         <f t="shared" si="8"/>
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="K20" s="44">
         <f t="shared" si="9"/>
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="L20" s="42">
         <v>4</v>
       </c>
       <c r="M20" s="42">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N20" s="37"/>
       <c r="O20" s="37"/>
@@ -6376,7 +6377,7 @@
       </c>
       <c r="D21" s="42">
         <f>IF(Resum!B41=6,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="42">
         <f t="shared" si="5"/>
@@ -6384,7 +6385,7 @@
       </c>
       <c r="F21" s="42">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" s="42">
         <f t="shared" si="7"/>
@@ -6465,18 +6466,18 @@
       <c r="I24" s="46"/>
       <c r="J24" s="47">
         <f>SUM(J5:J22)/1000</f>
-        <v>2.3792</v>
+        <v>0.85439999999999994</v>
       </c>
       <c r="K24" s="48">
         <f>SUM(K5:K22)</f>
-        <v>55720</v>
+        <v>13688</v>
       </c>
       <c r="L24" s="45" t="s">
         <v>77</v>
       </c>
       <c r="M24" s="49">
         <f>SUM(M16:M21)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N24" s="37"/>
       <c r="O24" s="37"/>
@@ -6498,7 +6499,7 @@
       </c>
       <c r="M25" s="51">
         <f>E16+F16+G16</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N25" s="37"/>
       <c r="O25" s="37"/>
@@ -6587,7 +6588,9 @@
   </sheetPr>
   <dimension ref="A1:IV15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.375" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -6650,10 +6653,10 @@
       </c>
       <c r="B3" s="55">
         <f>Resum!B7</f>
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="C3" s="56">
-        <f t="shared" ref="C3:C5" si="0">IF($B$6&lt;&gt;0,1,0)</f>
+        <f>IF($B$6&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="D3" s="54" t="s">
@@ -6673,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="58">
-        <f t="shared" ref="I3:I11" si="1">G3*E3*C3</f>
+        <f t="shared" ref="I3:I11" si="0">G3*E3*C3</f>
         <v>0</v>
       </c>
     </row>
@@ -6686,7 +6689,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="56">
-        <f t="shared" si="0"/>
+        <f>IF($B$6&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="D4" s="54" t="s">
@@ -6694,7 +6697,7 @@
       </c>
       <c r="E4" s="56">
         <f>2*E15+B5*2</f>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F4" s="57">
         <v>6000</v>
@@ -6707,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6720,7 +6723,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="56">
-        <f t="shared" si="0"/>
+        <f>IF($B$6&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="D5" s="54" t="s">
@@ -6728,7 +6731,7 @@
       </c>
       <c r="E5" s="56">
         <f>(B4-4)*2+E15+2+2</f>
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F5" s="57">
         <v>26</v>
@@ -6741,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6754,15 +6757,15 @@
         <v>0</v>
       </c>
       <c r="C6" s="56">
-        <f t="shared" ref="C6:C7" si="2">IF($B$6=1,1,0)</f>
+        <f>IF($B$6=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="D6" s="54" t="s">
         <v>91</v>
       </c>
       <c r="E6" s="56">
-        <f t="shared" ref="E6:E10" si="3">$B$3*2</f>
-        <v>160</v>
+        <f>$B$3*2</f>
+        <v>1080</v>
       </c>
       <c r="F6" s="57">
         <v>1600</v>
@@ -6771,11 +6774,11 @@
         <v>6.2</v>
       </c>
       <c r="H6" s="57">
-        <f t="shared" ref="H6:H11" si="4">C6*E6*F6</f>
+        <f t="shared" ref="H6:H11" si="1">C6*E6*F6</f>
         <v>0</v>
       </c>
       <c r="I6" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6783,7 +6786,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="56">
-        <f t="shared" si="2"/>
+        <f>IF($B$6=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="D7" s="54" t="s">
@@ -6799,11 +6802,11 @@
         <v>600</v>
       </c>
       <c r="H7" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6811,15 +6814,15 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="56">
-        <f t="shared" ref="C8:C9" si="5">IF($B$6=2,1,0)</f>
+        <f>IF($B$6=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="D8" s="54" t="s">
         <v>93</v>
       </c>
       <c r="E8" s="56">
-        <f t="shared" si="3"/>
-        <v>160</v>
+        <f>$B$3*2</f>
+        <v>1080</v>
       </c>
       <c r="F8" s="57">
         <v>2800</v>
@@ -6828,11 +6831,11 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H8" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6840,7 +6843,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="56">
-        <f t="shared" si="5"/>
+        <f>IF($B$6=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="D9" s="54" t="s">
@@ -6856,11 +6859,11 @@
         <v>1800</v>
       </c>
       <c r="H9" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6868,15 +6871,15 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="56">
-        <f t="shared" ref="C10:C11" si="6">IF($B$6=3,1,0)</f>
+        <f>IF($B$6=3,1,0)</f>
         <v>0</v>
       </c>
       <c r="D10" s="54" t="s">
         <v>95</v>
       </c>
       <c r="E10" s="56">
-        <f t="shared" si="3"/>
-        <v>160</v>
+        <f>$B$3*2</f>
+        <v>1080</v>
       </c>
       <c r="F10" s="57">
         <v>4200</v>
@@ -6885,11 +6888,11 @@
         <v>18.5</v>
       </c>
       <c r="H10" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6897,7 +6900,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="56">
-        <f t="shared" si="6"/>
+        <f>IF($B$6=3,1,0)</f>
         <v>0</v>
       </c>
       <c r="D11" s="54" t="s">
@@ -6913,11 +6916,11 @@
         <v>3500</v>
       </c>
       <c r="H11" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6983,7 +6986,7 @@
       </c>
       <c r="E15" s="56">
         <f>MROUND(B3/(B4-4),1)</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -7010,7 +7013,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV48"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -7380,7 +7385,7 @@
       </c>
       <c r="B10" s="87">
         <f>Resum!B5+'Cabina de discos'!J24+SAN!B15+Backup!H29</f>
-        <v>2002.3792000000001</v>
+        <v>2000.8543999999999</v>
       </c>
       <c r="C10" s="85" t="s">
         <v>123</v>
@@ -7773,23 +7778,23 @@
       </c>
       <c r="B18" s="101">
         <f t="shared" ref="B18:B38" si="2">$B$10*A18</f>
-        <v>2002.3792000000001</v>
+        <v>2000.8543999999999</v>
       </c>
       <c r="C18" s="102">
         <f t="shared" ref="C18:C38" si="3">B18*(1+$B$9)</f>
-        <v>2202.6171200000003</v>
+        <v>2200.93984</v>
       </c>
       <c r="D18" s="103">
         <f>SUM(B6:G6*C18)</f>
-        <v>14264.474456453763</v>
+        <v>14253.612142936321</v>
       </c>
       <c r="E18" s="103">
         <f t="shared" ref="E18:E38" si="4">($J$38*$B$7+$K$38*$C$7+$L$38*$D$7+$M$38*$E$7+$N$38*$F$7+$O$38*$G$7+$P$38*$G$7)*B18</f>
-        <v>345849.18133982079</v>
+        <v>345585.81921954558</v>
       </c>
       <c r="F18" s="104">
         <f t="shared" ref="F18:F38" si="5">D18+E18</f>
-        <v>360113.65579627454</v>
+        <v>359839.4313624819</v>
       </c>
       <c r="G18" s="105">
         <f t="shared" ref="G18:G38" si="6">1-$F$18/F18</f>
@@ -7839,26 +7844,26 @@
       </c>
       <c r="B19" s="107">
         <f t="shared" si="2"/>
-        <v>2102.4981600000001</v>
+        <v>2100.8971200000001</v>
       </c>
       <c r="C19" s="108">
         <f t="shared" si="3"/>
-        <v>2312.7479760000001</v>
+        <v>2310.9868320000005</v>
       </c>
       <c r="D19" s="109">
         <v>1721.3454115905599</v>
       </c>
       <c r="E19" s="109">
         <f t="shared" si="4"/>
-        <v>363141.64040681184</v>
+        <v>362865.1101805229</v>
       </c>
       <c r="F19" s="110">
         <f t="shared" si="5"/>
-        <v>364862.98581840238</v>
+        <v>364586.45559211343</v>
       </c>
       <c r="G19" s="111">
         <f t="shared" si="6"/>
-        <v>1.301674931885699E-2</v>
+        <v>1.3020297810904746E-2</v>
       </c>
       <c r="H19" s="82"/>
       <c r="I19" s="74" t="s">
@@ -7904,26 +7909,26 @@
       </c>
       <c r="B20" s="107">
         <f t="shared" si="2"/>
-        <v>2202.6171200000003</v>
+        <v>2200.93984</v>
       </c>
       <c r="C20" s="108">
         <f t="shared" si="3"/>
-        <v>2422.8788320000008</v>
+        <v>2421.0338240000001</v>
       </c>
       <c r="D20" s="109">
         <v>1803.314240713921</v>
       </c>
       <c r="E20" s="109">
         <f t="shared" si="4"/>
-        <v>380434.0994738029</v>
+        <v>380144.40114150016</v>
       </c>
       <c r="F20" s="110">
         <f t="shared" si="5"/>
-        <v>382237.41371451679</v>
+        <v>381947.71538221405</v>
       </c>
       <c r="G20" s="111">
         <f t="shared" si="6"/>
-        <v>5.7879624349818082E-2</v>
+        <v>5.7883011546772667E-2</v>
       </c>
       <c r="H20" s="64"/>
       <c r="I20" s="112"/>
@@ -7957,26 +7962,26 @@
       </c>
       <c r="B21" s="107">
         <f t="shared" si="2"/>
-        <v>2302.7360800000001</v>
+        <v>2300.9825599999999</v>
       </c>
       <c r="C21" s="108">
         <f t="shared" si="3"/>
-        <v>2533.0096880000006</v>
+        <v>2531.0808160000001</v>
       </c>
       <c r="D21" s="109">
         <v>1885.28306983728</v>
       </c>
       <c r="E21" s="109">
         <f t="shared" si="4"/>
-        <v>397726.55854079395</v>
+        <v>397423.69210247742</v>
       </c>
       <c r="F21" s="110">
         <f t="shared" si="5"/>
-        <v>399611.84161063121</v>
+        <v>399308.97517231468</v>
       </c>
       <c r="G21" s="111">
         <f t="shared" si="6"/>
-        <v>9.8841379812869556E-2</v>
+        <v>9.8844619740391271E-2</v>
       </c>
       <c r="H21" s="64"/>
       <c r="I21" s="71"/>
@@ -7998,26 +8003,26 @@
       </c>
       <c r="B22" s="107">
         <f t="shared" si="2"/>
-        <v>2402.8550399999999</v>
+        <v>2401.0252799999998</v>
       </c>
       <c r="C22" s="108">
         <f t="shared" si="3"/>
-        <v>2643.1405440000003</v>
+        <v>2641.1278080000002</v>
       </c>
       <c r="D22" s="109">
         <v>1967.2518989606399</v>
       </c>
       <c r="E22" s="109">
         <f t="shared" si="4"/>
-        <v>415019.01760778495</v>
+        <v>414702.98306345468</v>
       </c>
       <c r="F22" s="110">
         <f t="shared" si="5"/>
-        <v>416986.26950674556</v>
+        <v>416670.2349624153</v>
       </c>
       <c r="G22" s="111">
         <f t="shared" si="6"/>
-        <v>0.13638965565399985</v>
+        <v>0.13639276058454153</v>
       </c>
       <c r="H22" s="82"/>
       <c r="I22" s="74" t="s">
@@ -8041,26 +8046,26 @@
       </c>
       <c r="B23" s="107">
         <f t="shared" si="2"/>
-        <v>2502.9740000000002</v>
+        <v>2501.0679999999998</v>
       </c>
       <c r="C23" s="108">
         <f t="shared" si="3"/>
-        <v>2753.2714000000005</v>
+        <v>2751.1747999999998</v>
       </c>
       <c r="D23" s="109">
         <v>2049.2207280839998</v>
       </c>
       <c r="E23" s="109">
         <f t="shared" si="4"/>
-        <v>432311.476674776</v>
+        <v>431982.27402443194</v>
       </c>
       <c r="F23" s="110">
         <f t="shared" si="5"/>
-        <v>434360.69740285998</v>
+        <v>434031.49475251592</v>
       </c>
       <c r="G23" s="111">
         <f t="shared" si="6"/>
-        <v>0.17093406942783995</v>
+        <v>0.1709370501611599</v>
       </c>
       <c r="H23" s="82"/>
       <c r="I23" s="72"/>
@@ -8096,26 +8101,26 @@
       </c>
       <c r="B24" s="107">
         <f t="shared" si="2"/>
-        <v>2603.0929600000004</v>
+        <v>2601.1107200000001</v>
       </c>
       <c r="C24" s="108">
         <f t="shared" si="3"/>
-        <v>2863.4022560000008</v>
+        <v>2861.2217920000003</v>
       </c>
       <c r="D24" s="109">
         <v>2131.1895572073599</v>
       </c>
       <c r="E24" s="109">
         <f t="shared" si="4"/>
-        <v>449603.93574176711</v>
+        <v>449261.56498540926</v>
       </c>
       <c r="F24" s="110">
         <f t="shared" si="5"/>
-        <v>451735.12529897445</v>
+        <v>451392.7545426166</v>
       </c>
       <c r="G24" s="111">
         <f t="shared" si="6"/>
-        <v>0.20282122060369234</v>
+        <v>0.202824086693423</v>
       </c>
       <c r="H24" s="82"/>
       <c r="I24" s="74" t="s">
@@ -8160,26 +8165,26 @@
       </c>
       <c r="B25" s="107">
         <f t="shared" si="2"/>
-        <v>2703.2119200000002</v>
+        <v>2701.15344</v>
       </c>
       <c r="C25" s="108">
         <f t="shared" si="3"/>
-        <v>2973.5331120000005</v>
+        <v>2971.2687840000003</v>
       </c>
       <c r="D25" s="109">
         <v>2213.158386330721</v>
       </c>
       <c r="E25" s="109">
         <f t="shared" si="4"/>
-        <v>466896.39480875811</v>
+        <v>466540.85594638652</v>
       </c>
       <c r="F25" s="110">
         <f t="shared" si="5"/>
-        <v>469109.55319508881</v>
+        <v>468754.01433271723</v>
       </c>
       <c r="G25" s="111">
         <f t="shared" si="6"/>
-        <v>0.23234636058133329</v>
+        <v>0.23234912051959256</v>
       </c>
       <c r="H25" s="82"/>
       <c r="I25" s="74" t="s">
@@ -8224,26 +8229,26 @@
       </c>
       <c r="B26" s="107">
         <f t="shared" si="2"/>
-        <v>2803.33088</v>
+        <v>2801.19616</v>
       </c>
       <c r="C26" s="108">
         <f t="shared" si="3"/>
-        <v>3083.6639680000003</v>
+        <v>3081.3157760000004</v>
       </c>
       <c r="D26" s="109">
         <v>2295.1272154540811</v>
       </c>
       <c r="E26" s="109">
         <f t="shared" si="4"/>
-        <v>484188.8538757491</v>
+        <v>483820.14690736384</v>
       </c>
       <c r="F26" s="110">
         <f t="shared" si="5"/>
-        <v>486483.98109120317</v>
+        <v>486115.27412281791</v>
       </c>
       <c r="G26" s="111">
         <f t="shared" si="6"/>
-        <v>0.25976256198914283</v>
+        <v>0.25976522335817853</v>
       </c>
       <c r="H26" s="82"/>
       <c r="I26" s="74" t="s">
@@ -8288,26 +8293,26 @@
       </c>
       <c r="B27" s="107">
         <f t="shared" si="2"/>
-        <v>2903.4498400000002</v>
+        <v>2901.2388799999999</v>
       </c>
       <c r="C27" s="108">
         <f t="shared" si="3"/>
-        <v>3193.7948240000005</v>
+        <v>3191.362768</v>
       </c>
       <c r="D27" s="109">
         <v>2377.0960445774399</v>
       </c>
       <c r="E27" s="109">
         <f t="shared" si="4"/>
-        <v>501481.31294274016</v>
+        <v>501099.43786834111</v>
       </c>
       <c r="F27" s="110">
         <f t="shared" si="5"/>
-        <v>503858.40898731758</v>
+        <v>503476.53391291853</v>
       </c>
       <c r="G27" s="111">
         <f t="shared" si="6"/>
-        <v>0.28528799088606893</v>
+        <v>0.28529056048375856</v>
       </c>
       <c r="H27" s="82"/>
       <c r="I27" s="74" t="s">
@@ -8352,26 +8357,26 @@
       </c>
       <c r="B28" s="107">
         <f t="shared" si="2"/>
-        <v>3003.5688</v>
+        <v>3001.2815999999998</v>
       </c>
       <c r="C28" s="108">
         <f t="shared" si="3"/>
-        <v>3303.9256800000003</v>
+        <v>3301.40976</v>
       </c>
       <c r="D28" s="109">
         <v>2459.0648737008</v>
       </c>
       <c r="E28" s="109">
         <f t="shared" si="4"/>
-        <v>518773.77200973115</v>
+        <v>518378.72882931837</v>
       </c>
       <c r="F28" s="110">
         <f t="shared" si="5"/>
-        <v>521232.83688343194</v>
+        <v>520837.79370301915</v>
       </c>
       <c r="G28" s="111">
         <f t="shared" si="6"/>
-        <v>0.3091117245231999</v>
+        <v>0.30911420846763327</v>
       </c>
       <c r="H28" s="82"/>
       <c r="I28" s="74" t="s">
@@ -8416,26 +8421,26 @@
       </c>
       <c r="B29" s="107">
         <f t="shared" si="2"/>
-        <v>3103.6877600000003</v>
+        <v>3101.3243200000002</v>
       </c>
       <c r="C29" s="108">
         <f t="shared" si="3"/>
-        <v>3414.0565360000005</v>
+        <v>3411.4567520000005</v>
       </c>
       <c r="D29" s="109">
         <v>2541.0337028241611</v>
       </c>
       <c r="E29" s="109">
         <f t="shared" si="4"/>
-        <v>536066.23107672227</v>
+        <v>535658.01979029574</v>
       </c>
       <c r="F29" s="110">
         <f t="shared" si="5"/>
-        <v>538607.26477954641</v>
+        <v>538199.05349311989</v>
       </c>
       <c r="G29" s="111">
         <f t="shared" si="6"/>
-        <v>0.33139844308696775</v>
+        <v>0.33140084690416138</v>
       </c>
       <c r="H29" s="82"/>
       <c r="I29" s="74" t="s">
@@ -8480,26 +8485,26 @@
       </c>
       <c r="B30" s="107">
         <f t="shared" si="2"/>
-        <v>3203.8067200000005</v>
+        <v>3201.3670400000001</v>
       </c>
       <c r="C30" s="108">
         <f t="shared" si="3"/>
-        <v>3524.1873920000007</v>
+        <v>3521.5037440000006</v>
       </c>
       <c r="D30" s="109">
         <v>2623.0025319475199</v>
       </c>
       <c r="E30" s="109">
         <f t="shared" si="4"/>
-        <v>553358.69014371338</v>
+        <v>552937.31075127295</v>
       </c>
       <c r="F30" s="110">
         <f t="shared" si="5"/>
-        <v>555981.69267566095</v>
+        <v>555560.31328322052</v>
       </c>
       <c r="G30" s="111">
         <f t="shared" si="6"/>
-        <v>0.35229224174050011</v>
+        <v>0.35229457043840628</v>
       </c>
       <c r="H30" s="82"/>
       <c r="I30" s="74" t="s">
@@ -8544,26 +8549,26 @@
       </c>
       <c r="B31" s="107">
         <f t="shared" si="2"/>
-        <v>3303.9256799999998</v>
+        <v>3301.4097599999996</v>
       </c>
       <c r="C31" s="108">
         <f t="shared" si="3"/>
-        <v>3634.318248</v>
+        <v>3631.5507359999997</v>
       </c>
       <c r="D31" s="109">
         <v>2704.97136107088</v>
       </c>
       <c r="E31" s="109">
         <f t="shared" si="4"/>
-        <v>570651.14921070426</v>
+        <v>570216.60171225015</v>
       </c>
       <c r="F31" s="110">
         <f t="shared" si="5"/>
-        <v>573356.12057177513</v>
+        <v>572921.57307332102</v>
       </c>
       <c r="G31" s="111">
         <f t="shared" si="6"/>
-        <v>0.37191974956654539</v>
+        <v>0.37192200769784844</v>
       </c>
       <c r="H31" s="82"/>
       <c r="I31" s="74" t="s">
@@ -8608,26 +8613,26 @@
       </c>
       <c r="B32" s="107">
         <f t="shared" si="2"/>
-        <v>3404.0446400000001</v>
+        <v>3401.4524799999999</v>
       </c>
       <c r="C32" s="108">
         <f t="shared" si="3"/>
-        <v>3744.4491040000003</v>
+        <v>3741.5977280000002</v>
       </c>
       <c r="D32" s="109">
         <v>2786.940190194241</v>
       </c>
       <c r="E32" s="109">
         <f t="shared" si="4"/>
-        <v>587943.60827769537</v>
+        <v>587495.89267322747</v>
       </c>
       <c r="F32" s="110">
         <f t="shared" si="5"/>
-        <v>590730.54846788966</v>
+        <v>590282.83286342176</v>
       </c>
       <c r="G32" s="111">
         <f t="shared" si="6"/>
-        <v>0.39039269810870592</v>
+        <v>0.39039488982438242</v>
       </c>
       <c r="H32" s="82"/>
       <c r="I32" s="74" t="s">
@@ -8672,26 +8677,26 @@
       </c>
       <c r="B33" s="107">
         <f t="shared" si="2"/>
-        <v>3504.1636000000003</v>
+        <v>3501.4951999999998</v>
       </c>
       <c r="C33" s="108">
         <f t="shared" si="3"/>
-        <v>3854.5799600000005</v>
+        <v>3851.6447200000002</v>
       </c>
       <c r="D33" s="109">
         <v>2868.9090193176012</v>
       </c>
       <c r="E33" s="109">
         <f t="shared" si="4"/>
-        <v>605236.06734468648</v>
+        <v>604775.18363420479</v>
       </c>
       <c r="F33" s="110">
         <f t="shared" si="5"/>
-        <v>608104.97636400408</v>
+        <v>607644.09265352238</v>
       </c>
       <c r="G33" s="111">
         <f t="shared" si="6"/>
-        <v>0.40781004959131428</v>
+        <v>0.40781217868654285</v>
       </c>
       <c r="H33" s="82"/>
       <c r="I33" s="74" t="s">
@@ -8736,26 +8741,26 @@
       </c>
       <c r="B34" s="107">
         <f t="shared" si="2"/>
-        <v>3604.2825600000001</v>
+        <v>3601.5379199999998</v>
       </c>
       <c r="C34" s="108">
         <f t="shared" si="3"/>
-        <v>3964.7108160000002</v>
+        <v>3961.6917120000003</v>
       </c>
       <c r="D34" s="109">
         <v>2950.87784844096</v>
       </c>
       <c r="E34" s="109">
         <f t="shared" si="4"/>
-        <v>622528.52641167748</v>
+        <v>622054.47459518199</v>
       </c>
       <c r="F34" s="110">
         <f t="shared" si="5"/>
-        <v>625479.40426011849</v>
+        <v>625005.35244362301</v>
       </c>
       <c r="G34" s="111">
         <f t="shared" si="6"/>
-        <v>0.42425977043600005</v>
+        <v>0.42426184038969439</v>
       </c>
       <c r="H34" s="82"/>
       <c r="I34" s="74" t="s">
@@ -8800,26 +8805,26 @@
       </c>
       <c r="B35" s="107">
         <f t="shared" si="2"/>
-        <v>3704.4015200000003</v>
+        <v>3701.5806400000001</v>
       </c>
       <c r="C35" s="108">
         <f t="shared" si="3"/>
-        <v>4074.8416720000009</v>
+        <v>4071.7387040000003</v>
       </c>
       <c r="D35" s="109">
         <v>3032.846677564321</v>
       </c>
       <c r="E35" s="109">
         <f t="shared" si="4"/>
-        <v>639820.98547866847</v>
+        <v>639333.76555615931</v>
       </c>
       <c r="F35" s="110">
         <f t="shared" si="5"/>
-        <v>642853.83215623279</v>
+        <v>642366.61223372363</v>
       </c>
       <c r="G35" s="111">
         <f t="shared" si="6"/>
-        <v>0.43982031718097292</v>
+        <v>0.43982233118997294</v>
       </c>
       <c r="H35" s="82"/>
       <c r="I35" s="74" t="s">
@@ -8864,26 +8869,26 @@
       </c>
       <c r="B36" s="107">
         <f t="shared" si="2"/>
-        <v>3804.5204800000001</v>
+        <v>3801.6233599999996</v>
       </c>
       <c r="C36" s="108">
         <f t="shared" si="3"/>
-        <v>4184.9725280000002</v>
+        <v>4181.7856959999999</v>
       </c>
       <c r="D36" s="109">
         <v>3114.8155066876802</v>
       </c>
       <c r="E36" s="109">
         <f t="shared" si="4"/>
-        <v>657113.44454565947</v>
+        <v>656613.05651713652</v>
       </c>
       <c r="F36" s="110">
         <f t="shared" si="5"/>
-        <v>660228.26005234721</v>
+        <v>659727.87202382425</v>
       </c>
       <c r="G36" s="111">
         <f t="shared" si="6"/>
-        <v>0.45456188778147366</v>
+        <v>0.45456384879023681</v>
       </c>
       <c r="H36" s="82"/>
       <c r="I36" s="74" t="s">
@@ -8928,26 +8933,26 @@
       </c>
       <c r="B37" s="107">
         <f t="shared" si="2"/>
-        <v>3904.6394399999999</v>
+        <v>3901.66608</v>
       </c>
       <c r="C37" s="108">
         <f t="shared" si="3"/>
-        <v>4295.103384</v>
+        <v>4291.8326880000004</v>
       </c>
       <c r="D37" s="109">
         <v>3196.7843358110408</v>
       </c>
       <c r="E37" s="109">
         <f t="shared" si="4"/>
-        <v>674405.90361265047</v>
+        <v>673892.34747811384</v>
       </c>
       <c r="F37" s="110">
         <f t="shared" si="5"/>
-        <v>677602.68794846151</v>
+        <v>677089.13181392488</v>
       </c>
       <c r="G37" s="111">
         <f t="shared" si="6"/>
-        <v>0.46854748040246141</v>
+        <v>0.46854939112894867</v>
       </c>
       <c r="H37" s="82"/>
       <c r="I37" s="72"/>
@@ -8969,26 +8974,26 @@
       </c>
       <c r="B38" s="107">
         <f t="shared" si="2"/>
-        <v>4004.7584000000002</v>
+        <v>4001.7087999999999</v>
       </c>
       <c r="C38" s="108">
         <f t="shared" si="3"/>
-        <v>4405.2342400000007</v>
+        <v>4401.87968</v>
       </c>
       <c r="D38" s="109">
         <v>3278.753164934401</v>
       </c>
       <c r="E38" s="109">
         <f t="shared" si="4"/>
-        <v>691698.36267964158</v>
+        <v>691171.63843909116</v>
       </c>
       <c r="F38" s="110">
         <f t="shared" si="5"/>
-        <v>694977.11584457592</v>
+        <v>694450.3916040255</v>
       </c>
       <c r="G38" s="111">
         <f t="shared" si="6"/>
-        <v>0.48183379339239996</v>
+        <v>0.48183565635072489</v>
       </c>
       <c r="H38" s="82"/>
       <c r="I38" s="74" t="s">
@@ -9268,7 +9273,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -9324,7 +9331,7 @@
       </c>
       <c r="B3" s="128">
         <f>B4+B5+B6</f>
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="C3" s="126"/>
       <c r="D3" s="237" t="s">
@@ -9352,7 +9359,7 @@
       </c>
       <c r="B4" s="131">
         <f>'Cabina de discos'!M24</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" s="126"/>
       <c r="D4" s="132" t="s">
@@ -9374,11 +9381,11 @@
       </c>
       <c r="J4" s="136">
         <f>G9</f>
-        <v>342034.09673888236</v>
+        <v>341951.82940874458</v>
       </c>
       <c r="K4" s="136">
         <f>J4*5</f>
-        <v>1710170.4836944118</v>
+        <v>1709759.1470437229</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18.95" customHeight="1">
@@ -9410,11 +9417,11 @@
       </c>
       <c r="J5" s="136">
         <f>G21</f>
-        <v>421273.46231850982</v>
+        <v>421163.77254499274</v>
       </c>
       <c r="K5" s="136">
         <f>J5*5</f>
-        <v>2106367.3115925491</v>
+        <v>2105818.8627249636</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18.95" customHeight="1">
@@ -9445,11 +9452,11 @@
       </c>
       <c r="J6" s="136">
         <f>G30</f>
-        <v>446017.04836944118</v>
+        <v>445975.91470437223</v>
       </c>
       <c r="K6" s="136">
         <f>J6*5</f>
-        <v>2230085.2418472059</v>
+        <v>2229879.5735218613</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18.95" customHeight="1">
@@ -9458,7 +9465,7 @@
       </c>
       <c r="B7" s="141">
         <f>Electricitat!F18</f>
-        <v>360113.65579627454</v>
+        <v>359839.4313624819</v>
       </c>
       <c r="C7" s="126"/>
       <c r="D7" s="132" t="s">
@@ -9495,7 +9502,7 @@
       </c>
       <c r="G8" s="138">
         <f>B7*(E9-1)</f>
-        <v>108034.09673888238</v>
+        <v>107951.82940874458</v>
       </c>
       <c r="H8" s="142"/>
       <c r="I8" s="37"/>
@@ -9522,7 +9529,7 @@
       </c>
       <c r="G9" s="138">
         <f>SUM(G5:G8)</f>
-        <v>342034.09673888236</v>
+        <v>341951.82940874458</v>
       </c>
       <c r="H9" s="142"/>
       <c r="I9" s="37"/>
@@ -9680,7 +9687,7 @@
       </c>
       <c r="G18" s="138">
         <f>B7*(E19-1)</f>
-        <v>144045.46231850979</v>
+        <v>143935.77254499274</v>
       </c>
       <c r="H18" s="142"/>
       <c r="I18" s="37"/>
@@ -9738,7 +9745,7 @@
       </c>
       <c r="G21" s="138">
         <f>SUM(G16:G20)</f>
-        <v>421273.46231850982</v>
+        <v>421163.77254499274</v>
       </c>
       <c r="H21" s="142"/>
       <c r="I21" s="37"/>
@@ -9863,7 +9870,7 @@
       </c>
       <c r="G28" s="138">
         <f>B7*(E28-1)</f>
-        <v>54017.048369441152</v>
+        <v>53975.914704372255</v>
       </c>
       <c r="H28" s="142"/>
       <c r="I28" s="37"/>
@@ -9899,7 +9906,7 @@
       </c>
       <c r="G30" s="138">
         <f>SUM(G27:G29)</f>
-        <v>446017.04836944118</v>
+        <v>445975.91470437223</v>
       </c>
       <c r="H30" s="142"/>
       <c r="I30" s="37"/>
@@ -9934,7 +9941,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
@@ -9994,7 +10003,7 @@
       </c>
       <c r="B3" s="163">
         <f>Resum!B13</f>
-        <v>227580</v>
+        <v>1434.33</v>
       </c>
       <c r="C3" s="160"/>
       <c r="D3" s="241" t="s">
@@ -10030,7 +10039,7 @@
         <v>0.09</v>
       </c>
       <c r="F4" s="169">
-        <f t="shared" ref="F4:F12" si="0">IF($B$3&gt;1024,1024,MAX($B$3,0))</f>
+        <f>IF($B$3&gt;1024,1024,MAX($B$3,0))</f>
         <v>1024</v>
       </c>
       <c r="G4" s="167" t="s">
@@ -10038,7 +10047,7 @@
       </c>
       <c r="H4" s="169">
         <f>F4*E4+F5*E5+F6*E6+F7*E7+F8*E8</f>
-        <v>15320.060000000001</v>
+        <v>122.93474999999999</v>
       </c>
       <c r="I4" s="160"/>
       <c r="J4" s="243" t="s">
@@ -10065,7 +10074,7 @@
       </c>
       <c r="F5" s="169">
         <f>IF($B$3&gt;50*1024,50*1024-F4,MAX($B$3-F4,0))</f>
-        <v>50176</v>
+        <v>410.32999999999993</v>
       </c>
       <c r="G5" s="170"/>
       <c r="H5" s="171"/>
@@ -10097,7 +10106,7 @@
       </c>
       <c r="F6" s="169">
         <f>IF($B$3&gt;500*1024,500*1024-F5-F4,MAX($B$3-F5-F4,0))</f>
-        <v>176380</v>
+        <v>0</v>
       </c>
       <c r="G6" s="174"/>
       <c r="H6" s="175"/>
@@ -10113,7 +10122,7 @@
       </c>
       <c r="L6" s="179">
         <f>H4*12</f>
-        <v>183840.72000000003</v>
+        <v>1475.2169999999999</v>
       </c>
       <c r="M6" s="161"/>
     </row>
@@ -10150,7 +10159,7 @@
       </c>
       <c r="L7" s="179">
         <f>H12*12</f>
-        <v>196291.296</v>
+        <v>1551.4288799999999</v>
       </c>
       <c r="M7" s="161"/>
     </row>
@@ -10264,7 +10273,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="F12" s="169">
-        <f t="shared" si="0"/>
+        <f>IF($B$3&gt;1024,1024,MAX($B$3,0))</f>
         <v>1024</v>
       </c>
       <c r="G12" s="167" t="s">
@@ -10272,7 +10281,7 @@
       </c>
       <c r="H12" s="169">
         <f>F12*E12+F13*E13+F14*E14+F15*E15+F16*E16</f>
-        <v>16357.608</v>
+        <v>129.28574</v>
       </c>
       <c r="I12" s="161"/>
       <c r="J12" s="37"/>
@@ -10292,7 +10301,7 @@
       </c>
       <c r="F13" s="169">
         <f>IF($B$3&gt;50*1024,50*1024-F12,MAX($B$3-F12,0))</f>
-        <v>50176</v>
+        <v>410.32999999999993</v>
       </c>
       <c r="G13" s="170"/>
       <c r="H13" s="171"/>
@@ -10314,7 +10323,7 @@
       </c>
       <c r="F14" s="169">
         <f>IF($B$3&gt;500*1024,500*1024-F13-F12,MAX($B$3-F13-F12,0))</f>
-        <v>176380</v>
+        <v>0</v>
       </c>
       <c r="G14" s="174"/>
       <c r="H14" s="175"/>
@@ -10440,20 +10449,20 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F20" s="169">
-        <f t="shared" ref="F20:F25" si="1">365/$B$4</f>
+        <f t="shared" ref="F20:F25" si="0">365/$B$4</f>
         <v>36.5</v>
       </c>
       <c r="G20" s="169">
         <f>$B$3*E20*F20</f>
-        <v>91373.369999999981</v>
+        <v>575.88349499999993</v>
       </c>
       <c r="H20" s="169">
-        <f t="shared" ref="H20:H21" si="2">100*$B$5*12</f>
+        <f>100*$B$5*12</f>
         <v>4800</v>
       </c>
       <c r="I20" s="169">
         <f>H20+G20</f>
-        <v>96173.369999999981</v>
+        <v>5375.883495</v>
       </c>
       <c r="J20" s="160"/>
       <c r="K20" s="191" t="s">
@@ -10477,20 +10486,20 @@
         <v>0.02</v>
       </c>
       <c r="F21" s="169">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
       <c r="G21" s="169">
         <f>$B$3*E21*F21</f>
-        <v>166133.40000000002</v>
+        <v>1047.0608999999999</v>
       </c>
       <c r="H21" s="169">
-        <f t="shared" si="2"/>
+        <f>100*$B$5*12</f>
         <v>4800</v>
       </c>
       <c r="I21" s="169">
         <f>H21+G21</f>
-        <v>170933.40000000002</v>
+        <v>5847.0609000000004</v>
       </c>
       <c r="J21" s="160"/>
       <c r="K21" s="178" t="s">
@@ -10498,7 +10507,7 @@
       </c>
       <c r="L21" s="179">
         <f>I20</f>
-        <v>96173.369999999981</v>
+        <v>5375.883495</v>
       </c>
       <c r="M21" s="193">
         <f>IF(AND(Resum!B16=1,Resum!B17=1),L21,0)</f>
@@ -10516,20 +10525,20 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="F22" s="169">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
       <c r="G22" s="169">
         <f>$B$3*E22*F22</f>
-        <v>74760.03</v>
+        <v>471.17740499999996</v>
       </c>
       <c r="H22" s="169">
-        <f t="shared" ref="H22:H23" si="3">90*$B$5*12</f>
+        <f>90*$B$5*12</f>
         <v>4320</v>
       </c>
       <c r="I22" s="169">
         <f>H22+G22</f>
-        <v>79080.03</v>
+        <v>4791.1774050000004</v>
       </c>
       <c r="J22" s="160"/>
       <c r="K22" s="178" t="s">
@@ -10537,7 +10546,7 @@
       </c>
       <c r="L22" s="179">
         <f>I21</f>
-        <v>170933.40000000002</v>
+        <v>5847.0609000000004</v>
       </c>
       <c r="M22" s="193">
         <f>IF(AND(Resum!B16=1,Resum!B17=0),L22,0)</f>
@@ -10555,20 +10564,20 @@
         <v>1.9E-2</v>
       </c>
       <c r="F23" s="169">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
       <c r="G23" s="169">
         <f>$B$3*E23*F23</f>
-        <v>157826.72999999998</v>
+        <v>994.707855</v>
       </c>
       <c r="H23" s="169">
-        <f t="shared" si="3"/>
+        <f>90*$B$5*12</f>
         <v>4320</v>
       </c>
       <c r="I23" s="169">
         <f>H23+G23</f>
-        <v>162146.72999999998</v>
+        <v>5314.7078549999997</v>
       </c>
       <c r="J23" s="160"/>
       <c r="K23" s="178" t="s">
@@ -10576,11 +10585,11 @@
       </c>
       <c r="L23" s="179">
         <f>I22</f>
-        <v>79080.03</v>
+        <v>4791.1774050000004</v>
       </c>
       <c r="M23" s="194">
         <f>IF(AND(Resum!B16=2,Resum!B17=1),L23,0)</f>
-        <v>79080.03</v>
+        <v>4791.1774050000004</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.95" customHeight="1">
@@ -10609,7 +10618,7 @@
       </c>
       <c r="L24" s="179">
         <f>I23</f>
-        <v>162146.72999999998</v>
+        <v>5314.7078549999997</v>
       </c>
       <c r="M24" s="193">
         <f>IF(AND(Resum!B16=2,Resum!B17=0),L24,0)</f>
@@ -10625,10 +10634,10 @@
       </c>
       <c r="E25" s="169">
         <f>ROUNDUP($B$3/$B$6,0)</f>
-        <v>569</v>
+        <v>4</v>
       </c>
       <c r="F25" s="169">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
       <c r="G25" s="169">
@@ -10637,11 +10646,11 @@
       </c>
       <c r="H25" s="169">
         <f>ROUNDUP(E25*$B$5/20,0)*100</f>
-        <v>11400</v>
+        <v>100</v>
       </c>
       <c r="I25" s="169">
         <f>G25+H25</f>
-        <v>20160</v>
+        <v>8860</v>
       </c>
       <c r="J25" s="160"/>
       <c r="K25" s="178" t="s">
@@ -10649,7 +10658,7 @@
       </c>
       <c r="L25" s="179">
         <f>I25</f>
-        <v>20160</v>
+        <v>8860</v>
       </c>
       <c r="M25" s="193">
         <f>IF(Resum!B16=3,L25,0)</f>
@@ -10688,15 +10697,15 @@
       <c r="D27" s="200"/>
       <c r="E27" s="201">
         <f>E25*B5</f>
-        <v>2276</v>
+        <v>16</v>
       </c>
       <c r="F27" s="201">
         <f>IF($E$25&lt;24,2500,IF($E$25&lt;48,3800,IF($E$25&lt;96,12000,70000)))</f>
-        <v>70000</v>
+        <v>2500</v>
       </c>
       <c r="G27" s="201">
         <f>E27*100</f>
-        <v>227600</v>
+        <v>1600</v>
       </c>
       <c r="H27" s="200"/>
       <c r="I27" s="201">
@@ -10708,7 +10717,7 @@
       <c r="L27" s="37"/>
       <c r="M27" s="44">
         <f>SUM(M21:M26)</f>
-        <v>79080.03</v>
+        <v>4791.1774050000004</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18.95" customHeight="1">
@@ -10740,12 +10749,12 @@
       <c r="C29" s="37"/>
       <c r="D29" s="205">
         <f>IF($E$25&lt;24,168,IF($E$25&lt;48,312,IF($E$25&lt;96,560,1500)))/1000</f>
-        <v>1.5</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="E29" s="201"/>
       <c r="F29" s="206">
         <f>IF($E$25&lt;24,2,IF($E$25&lt;48,4,IF($E$25&lt;96,8,40)))</f>
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G29" s="207">
         <f>F29*B7</f>
@@ -10918,15 +10927,15 @@
       </c>
       <c r="E4" s="187">
         <f>IF(Resum!$B$24=3,Resum!B25,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="216">
         <f>D4*E4*12</f>
-        <v>756</v>
+        <v>2268</v>
       </c>
       <c r="G4" s="216">
         <f>F4*0.4</f>
-        <v>302.40000000000003</v>
+        <v>907.2</v>
       </c>
       <c r="H4" s="174"/>
       <c r="I4" s="175"/>
@@ -11003,11 +11012,11 @@
       </c>
       <c r="F7" s="220">
         <f>SUM(F2:F6)</f>
-        <v>756</v>
+        <v>2268</v>
       </c>
       <c r="G7" s="220">
         <f>IF(Resum!B20=3,SUM(G2:G6),0)</f>
-        <v>302.40000000000003</v>
+        <v>907.2</v>
       </c>
       <c r="H7" s="175"/>
       <c r="I7" s="175"/>
@@ -11035,7 +11044,7 @@
       <c r="E9" s="175"/>
       <c r="F9" s="220">
         <f>IF(Resum!B26=0,F7,F7+G7)</f>
-        <v>1058.4000000000001</v>
+        <v>3175.2</v>
       </c>
       <c r="G9" s="175"/>
       <c r="H9" s="175"/>
